--- a/Code/Results/Cases/Case_2_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.020443242199763</v>
+        <v>1.051327715307378</v>
       </c>
       <c r="D2">
-        <v>1.033778288655658</v>
+        <v>1.051764338027758</v>
       </c>
       <c r="E2">
-        <v>1.014443624948787</v>
+        <v>1.060291986558754</v>
       </c>
       <c r="F2">
-        <v>1.021349321058765</v>
+        <v>1.068328339238921</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049893574476895</v>
+        <v>1.044262139707192</v>
       </c>
       <c r="J2">
-        <v>1.042029230861556</v>
+        <v>1.056356170754503</v>
       </c>
       <c r="K2">
-        <v>1.044786271659654</v>
+        <v>1.054514935958826</v>
       </c>
       <c r="L2">
-        <v>1.025705338718139</v>
+        <v>1.063019163946364</v>
       </c>
       <c r="M2">
-        <v>1.032519027477439</v>
+        <v>1.071033815629506</v>
       </c>
       <c r="N2">
-        <v>1.043509031891849</v>
+        <v>1.057856317682721</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026634738355753</v>
+        <v>1.05255557359645</v>
       </c>
       <c r="D3">
-        <v>1.038526510336019</v>
+        <v>1.05271545701331</v>
       </c>
       <c r="E3">
-        <v>1.020958406144425</v>
+        <v>1.061703087550109</v>
       </c>
       <c r="F3">
-        <v>1.028364316612764</v>
+        <v>1.069846996974822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052073537438296</v>
+        <v>1.044622305286532</v>
       </c>
       <c r="J3">
-        <v>1.046424739867776</v>
+        <v>1.057232711179185</v>
       </c>
       <c r="K3">
-        <v>1.048689072134064</v>
+        <v>1.05527841056208</v>
       </c>
       <c r="L3">
-        <v>1.031329963380938</v>
+        <v>1.064243155258974</v>
       </c>
       <c r="M3">
-        <v>1.0386466914413</v>
+        <v>1.072366684853348</v>
       </c>
       <c r="N3">
-        <v>1.047910783024984</v>
+        <v>1.058734102895347</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.030532359127616</v>
+        <v>1.053349172494521</v>
       </c>
       <c r="D4">
-        <v>1.0415177250967</v>
+        <v>1.053330048667331</v>
       </c>
       <c r="E4">
-        <v>1.025068645247551</v>
+        <v>1.062616086598697</v>
       </c>
       <c r="F4">
-        <v>1.032789776886007</v>
+        <v>1.070829675353788</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053434991804281</v>
+        <v>1.044853713886055</v>
       </c>
       <c r="J4">
-        <v>1.049186026894199</v>
+        <v>1.05779846427092</v>
       </c>
       <c r="K4">
-        <v>1.05113961671306</v>
+        <v>1.055770963234255</v>
       </c>
       <c r="L4">
-        <v>1.034873643042883</v>
+        <v>1.065034554386292</v>
       </c>
       <c r="M4">
-        <v>1.042507931689759</v>
+        <v>1.073228637057632</v>
       </c>
       <c r="N4">
-        <v>1.050675991395708</v>
+        <v>1.059300659421365</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032146147694465</v>
+        <v>1.053682587491913</v>
       </c>
       <c r="D5">
-        <v>1.042756665588069</v>
+        <v>1.053588222308022</v>
       </c>
       <c r="E5">
-        <v>1.026772691117312</v>
+        <v>1.062999897271354</v>
       </c>
       <c r="F5">
-        <v>1.03462443207662</v>
+        <v>1.071242799432319</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053996045686623</v>
+        <v>1.044950605831975</v>
       </c>
       <c r="J5">
-        <v>1.050327906252533</v>
+        <v>1.058035967458245</v>
       </c>
       <c r="K5">
-        <v>1.052152685420156</v>
+        <v>1.055977683142229</v>
       </c>
       <c r="L5">
-        <v>1.036341606989269</v>
+        <v>1.065367117729811</v>
       </c>
       <c r="M5">
-        <v>1.044107598278886</v>
+        <v>1.07359088554677</v>
       </c>
       <c r="N5">
-        <v>1.051819492353707</v>
+        <v>1.059538499890457</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032415691963417</v>
+        <v>1.053738556884417</v>
       </c>
       <c r="D6">
-        <v>1.042963624676692</v>
+        <v>1.053631559082598</v>
       </c>
       <c r="E6">
-        <v>1.027057442555491</v>
+        <v>1.063064340073225</v>
       </c>
       <c r="F6">
-        <v>1.03493100455157</v>
+        <v>1.071312165279998</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054089599126479</v>
+        <v>1.044966851444954</v>
       </c>
       <c r="J6">
-        <v>1.050518545105293</v>
+        <v>1.05807582545054</v>
       </c>
       <c r="K6">
-        <v>1.05232180047349</v>
+        <v>1.056012371898219</v>
       </c>
       <c r="L6">
-        <v>1.036586837972799</v>
+        <v>1.06542294843549</v>
       </c>
       <c r="M6">
-        <v>1.044374839969295</v>
+        <v>1.073651701971108</v>
       </c>
       <c r="N6">
-        <v>1.052010401935504</v>
+        <v>1.059578414485674</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.030554018396882</v>
+        <v>1.053353628438743</v>
       </c>
       <c r="D7">
-        <v>1.041534351722093</v>
+        <v>1.053333499182469</v>
       </c>
       <c r="E7">
-        <v>1.025091507046775</v>
+        <v>1.062621215145642</v>
       </c>
       <c r="F7">
-        <v>1.032814391253327</v>
+        <v>1.070835195508011</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053442532457014</v>
+        <v>1.044855010100913</v>
       </c>
       <c r="J7">
-        <v>1.049201358145395</v>
+        <v>1.057801639130995</v>
       </c>
       <c r="K7">
-        <v>1.051153219753082</v>
+        <v>1.055773726805767</v>
       </c>
       <c r="L7">
-        <v>1.034893342254244</v>
+        <v>1.065038998662415</v>
       </c>
       <c r="M7">
-        <v>1.042529397662407</v>
+        <v>1.073233477891007</v>
       </c>
       <c r="N7">
-        <v>1.050691344419039</v>
+        <v>1.059303838790105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022558974390767</v>
+        <v>1.051742865652259</v>
       </c>
       <c r="D8">
-        <v>1.035400332077814</v>
+        <v>1.052085949400182</v>
       </c>
       <c r="E8">
-        <v>1.016667934592333</v>
+        <v>1.060768893512195</v>
       </c>
       <c r="F8">
-        <v>1.023744501485927</v>
+        <v>1.068841578546472</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050640762871942</v>
+        <v>1.044384200078075</v>
       </c>
       <c r="J8">
-        <v>1.043532430027087</v>
+        <v>1.056652698562348</v>
       </c>
       <c r="K8">
-        <v>1.046121219008071</v>
+        <v>1.054773260521028</v>
       </c>
       <c r="L8">
-        <v>1.027626763934428</v>
+        <v>1.063432945248095</v>
       </c>
       <c r="M8">
-        <v>1.034612164268158</v>
+        <v>1.07148437181432</v>
       </c>
       <c r="N8">
-        <v>1.045014365772568</v>
+        <v>1.058153266594065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00757691140956</v>
+        <v>1.048897397758108</v>
       </c>
       <c r="D9">
-        <v>1.023926698552419</v>
+        <v>1.049881045939212</v>
       </c>
       <c r="E9">
-        <v>1.000954462389241</v>
+        <v>1.057504071428364</v>
       </c>
       <c r="F9">
-        <v>1.006821809385273</v>
+        <v>1.06532839487847</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045304881150553</v>
+        <v>1.043541946365811</v>
       </c>
       <c r="J9">
-        <v>1.032864917579895</v>
+        <v>1.054617086401239</v>
       </c>
       <c r="K9">
-        <v>1.03664315303421</v>
+        <v>1.052998997073005</v>
       </c>
       <c r="L9">
-        <v>1.01403207306439</v>
+        <v>1.060598059765218</v>
       </c>
       <c r="M9">
-        <v>1.019805168662633</v>
+        <v>1.068398176985611</v>
       </c>
       <c r="N9">
-        <v>1.03433170423412</v>
+        <v>1.0561147636302</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9968930687071661</v>
+        <v>1.046995438207687</v>
       </c>
       <c r="D10">
-        <v>1.01576465010888</v>
+        <v>1.048406580735505</v>
       </c>
       <c r="E10">
-        <v>0.9897948505769623</v>
+        <v>1.055326708047283</v>
       </c>
       <c r="F10">
-        <v>0.9948000414074348</v>
+        <v>1.062985850373711</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041444639447559</v>
+        <v>1.042971889261711</v>
       </c>
       <c r="J10">
-        <v>1.025230500352682</v>
+        <v>1.053252449985237</v>
       </c>
       <c r="K10">
-        <v>1.029854985460059</v>
+        <v>1.051808429923765</v>
       </c>
       <c r="L10">
-        <v>1.004350839619041</v>
+        <v>1.058704646552231</v>
       </c>
       <c r="M10">
-        <v>1.009263821736734</v>
+        <v>1.066337723659775</v>
       </c>
       <c r="N10">
-        <v>1.026686445258764</v>
+        <v>1.054748189273961</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9920775336293008</v>
+        <v>1.046170640169184</v>
       </c>
       <c r="D11">
-        <v>1.012091880501132</v>
+        <v>1.047767019569463</v>
       </c>
       <c r="E11">
-        <v>0.9847750047515033</v>
+        <v>1.054383629321915</v>
       </c>
       <c r="F11">
-        <v>0.9893913330700314</v>
+        <v>1.061971334583277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039692342857058</v>
+        <v>1.042723004215075</v>
       </c>
       <c r="J11">
-        <v>1.0217836513192</v>
+        <v>1.052659721034021</v>
       </c>
       <c r="K11">
-        <v>1.026789308440007</v>
+        <v>1.051291042045424</v>
       </c>
       <c r="L11">
-        <v>0.9999898694130396</v>
+        <v>1.057883893385413</v>
       </c>
       <c r="M11">
-        <v>1.004516125288035</v>
+        <v>1.065444754976793</v>
       </c>
       <c r="N11">
-        <v>1.023234701304296</v>
+        <v>1.054154618579648</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9902580347379023</v>
+        <v>1.045864083448707</v>
       </c>
       <c r="D12">
-        <v>1.010705212078614</v>
+        <v>1.04752928917426</v>
       </c>
       <c r="E12">
-        <v>0.9828797595324176</v>
+        <v>1.054033282438325</v>
       </c>
       <c r="F12">
-        <v>0.98734909218726</v>
+        <v>1.061594465490636</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039028465613597</v>
+        <v>1.042630248397379</v>
       </c>
       <c r="J12">
-        <v>1.020480492174326</v>
+        <v>1.052439276894842</v>
       </c>
       <c r="K12">
-        <v>1.025630151372005</v>
+        <v>1.051098578624993</v>
       </c>
       <c r="L12">
-        <v>0.9983424744809434</v>
+        <v>1.057578890040083</v>
       </c>
       <c r="M12">
-        <v>1.00272274448665</v>
+        <v>1.0651129443648</v>
       </c>
       <c r="N12">
-        <v>1.021929691523962</v>
+        <v>1.053933861384505</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9906497575257835</v>
+        <v>1.04592984957102</v>
       </c>
       <c r="D13">
-        <v>1.011003700570084</v>
+        <v>1.047580290833501</v>
       </c>
       <c r="E13">
-        <v>0.9832877256420123</v>
+        <v>1.054108435179438</v>
       </c>
       <c r="F13">
-        <v>0.9877887087930922</v>
+        <v>1.061675306768129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039171472488708</v>
+        <v>1.042650158832222</v>
       </c>
       <c r="J13">
-        <v>1.02076108654894</v>
+        <v>1.05248657554794</v>
       </c>
       <c r="K13">
-        <v>1.025879743879159</v>
+        <v>1.051139875505816</v>
       </c>
       <c r="L13">
-        <v>0.9986971297039704</v>
+        <v>1.057644320666159</v>
       </c>
       <c r="M13">
-        <v>1.003108823314055</v>
+        <v>1.06518412448603</v>
       </c>
       <c r="N13">
-        <v>1.022210684374773</v>
+        <v>1.053981227207115</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9919277759942504</v>
+        <v>1.046145303995214</v>
       </c>
       <c r="D14">
-        <v>1.011977725813991</v>
+        <v>1.047747372160536</v>
       </c>
       <c r="E14">
-        <v>0.9846189836761793</v>
+        <v>1.054354670498316</v>
       </c>
       <c r="F14">
-        <v>0.9892232147689685</v>
+        <v>1.061940183169133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039637736985204</v>
+        <v>1.042715343298163</v>
       </c>
       <c r="J14">
-        <v>1.021676408014747</v>
+        <v>1.052641504745179</v>
       </c>
       <c r="K14">
-        <v>1.026693917810254</v>
+        <v>1.051275138736508</v>
       </c>
       <c r="L14">
-        <v>0.9998542703182276</v>
+        <v>1.057858684579536</v>
       </c>
       <c r="M14">
-        <v>1.004368507846707</v>
+        <v>1.065417329933261</v>
       </c>
       <c r="N14">
-        <v>1.02312730570205</v>
+        <v>1.054136376421585</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9927110500923795</v>
+        <v>1.046278027274576</v>
       </c>
       <c r="D15">
-        <v>1.012574830037807</v>
+        <v>1.047850294026191</v>
       </c>
       <c r="E15">
-        <v>0.9854350758446905</v>
+        <v>1.054506378017311</v>
       </c>
       <c r="F15">
-        <v>0.9901025758462185</v>
+        <v>1.062103377743394</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039923268479217</v>
+        <v>1.042755464635303</v>
       </c>
       <c r="J15">
-        <v>1.022237288045456</v>
+        <v>1.052736924782974</v>
       </c>
       <c r="K15">
-        <v>1.027192804369833</v>
+        <v>1.051358441367316</v>
       </c>
       <c r="L15">
-        <v>1.000563505304559</v>
+        <v>1.057990742684243</v>
       </c>
       <c r="M15">
-        <v>1.005140607546947</v>
+        <v>1.065560999143975</v>
       </c>
       <c r="N15">
-        <v>1.023688982246736</v>
+        <v>1.054231931966779</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9972084760134734</v>
+        <v>1.047050150920366</v>
       </c>
       <c r="D16">
-        <v>1.016005346149955</v>
+        <v>1.048449002751823</v>
       </c>
       <c r="E16">
-        <v>0.9901238439915301</v>
+        <v>1.055389291003779</v>
       </c>
       <c r="F16">
-        <v>0.9951544967118575</v>
+        <v>1.063053176177857</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041559160336613</v>
+        <v>1.04298836370825</v>
       </c>
       <c r="J16">
-        <v>1.02545614710443</v>
+        <v>1.053291748598568</v>
       </c>
       <c r="K16">
-        <v>1.030055662467009</v>
+        <v>1.051842727765864</v>
       </c>
       <c r="L16">
-        <v>1.00463652510078</v>
+        <v>1.05875909800562</v>
       </c>
       <c r="M16">
-        <v>1.009574856018894</v>
+        <v>1.066396970191998</v>
       </c>
       <c r="N16">
-        <v>1.026912412454782</v>
+        <v>1.054787543695831</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9999773197898127</v>
+        <v>1.047534149573498</v>
       </c>
       <c r="D17">
-        <v>1.018119033561693</v>
+        <v>1.048824258558751</v>
       </c>
       <c r="E17">
-        <v>0.9930130932870854</v>
+        <v>1.055943043906606</v>
       </c>
       <c r="F17">
-        <v>0.9982672337101092</v>
+        <v>1.063648907657706</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042563105841482</v>
+        <v>1.043133906265659</v>
       </c>
       <c r="J17">
-        <v>1.027436369592686</v>
+        <v>1.053639282282824</v>
       </c>
       <c r="K17">
-        <v>1.03181665772962</v>
+        <v>1.052146006964238</v>
       </c>
       <c r="L17">
-        <v>1.00714474746507</v>
+        <v>1.059240824496295</v>
       </c>
       <c r="M17">
-        <v>1.012305712961003</v>
+        <v>1.066921140518898</v>
       </c>
       <c r="N17">
-        <v>1.028895447086106</v>
+        <v>1.055135570917781</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001574240628106</v>
+        <v>1.047816338729568</v>
       </c>
       <c r="D18">
-        <v>1.019338662312026</v>
+        <v>1.049043032182437</v>
       </c>
       <c r="E18">
-        <v>0.9946804170800608</v>
+        <v>1.056266013312471</v>
       </c>
       <c r="F18">
-        <v>1.000063430555835</v>
+        <v>1.063996370925068</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043140958358988</v>
+        <v>1.043218601406364</v>
       </c>
       <c r="J18">
-        <v>1.028577906686125</v>
+        <v>1.053841816202248</v>
       </c>
       <c r="K18">
-        <v>1.03283173061786</v>
+        <v>1.052322724862228</v>
       </c>
       <c r="L18">
-        <v>1.008591609598993</v>
+        <v>1.059521721606766</v>
       </c>
       <c r="M18">
-        <v>1.013881069195582</v>
+        <v>1.067226805418346</v>
       </c>
       <c r="N18">
-        <v>1.030038605293154</v>
+        <v>1.055338392458602</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002115746504498</v>
+        <v>1.047912537868162</v>
       </c>
       <c r="D19">
-        <v>1.019752323314327</v>
+        <v>1.049117610302643</v>
       </c>
       <c r="E19">
-        <v>0.9952459609159183</v>
+        <v>1.056376133408695</v>
       </c>
       <c r="F19">
-        <v>1.000672671388967</v>
+        <v>1.064114844244646</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043336704236671</v>
+        <v>1.043247446823887</v>
       </c>
       <c r="J19">
-        <v>1.02896489977204</v>
+        <v>1.05391084516837</v>
       </c>
       <c r="K19">
-        <v>1.033175835584872</v>
+        <v>1.05238295068622</v>
       </c>
       <c r="L19">
-        <v>1.009082275878938</v>
+        <v>1.059617485858082</v>
       </c>
       <c r="M19">
-        <v>1.014415322596889</v>
+        <v>1.067331016724282</v>
       </c>
       <c r="N19">
-        <v>1.03042614795364</v>
+        <v>1.055407519453772</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9996821372263065</v>
+        <v>1.047482233445923</v>
       </c>
       <c r="D20">
-        <v>1.017893636513118</v>
+        <v>1.048784008221276</v>
       </c>
       <c r="E20">
-        <v>0.992704975266132</v>
+        <v>1.055883634118283</v>
       </c>
       <c r="F20">
-        <v>0.9979352925276087</v>
+        <v>1.063584993092792</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042456197644823</v>
+        <v>1.043118311351974</v>
       </c>
       <c r="J20">
-        <v>1.027225317451557</v>
+        <v>1.053602013496148</v>
       </c>
       <c r="K20">
-        <v>1.03162897963376</v>
+        <v>1.052113486584878</v>
       </c>
       <c r="L20">
-        <v>1.006877323343619</v>
+        <v>1.059189148714907</v>
       </c>
       <c r="M20">
-        <v>1.012014544745965</v>
+        <v>1.066864909778468</v>
       </c>
       <c r="N20">
-        <v>1.028684095226729</v>
+        <v>1.055098249205152</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9915523016647639</v>
+        <v>1.046081863315926</v>
       </c>
       <c r="D21">
-        <v>1.011691532998376</v>
+        <v>1.047698175556289</v>
       </c>
       <c r="E21">
-        <v>0.9842278286366786</v>
+        <v>1.054282161633127</v>
       </c>
       <c r="F21">
-        <v>0.9888017282061333</v>
+        <v>1.06186218462291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039500799853165</v>
+        <v>1.042696156633778</v>
       </c>
       <c r="J21">
-        <v>1.02140751347949</v>
+        <v>1.052595889661757</v>
       </c>
       <c r="K21">
-        <v>1.026454740208717</v>
+        <v>1.051235314904972</v>
       </c>
       <c r="L21">
-        <v>0.9995142999484552</v>
+        <v>1.057795563628937</v>
       </c>
       <c r="M21">
-        <v>1.003998407052158</v>
+        <v>1.065348660159681</v>
       </c>
       <c r="N21">
-        <v>1.02285802930571</v>
+        <v>1.054090696559512</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9862612187232934</v>
+        <v>1.045200293649901</v>
       </c>
       <c r="D22">
-        <v>1.007661263073164</v>
+        <v>1.047014491030666</v>
       </c>
       <c r="E22">
-        <v>0.9787191405621398</v>
+        <v>1.053274986598864</v>
       </c>
       <c r="F22">
-        <v>0.9828654139329563</v>
+        <v>1.060778794084027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037566933217559</v>
+        <v>1.042428943735408</v>
       </c>
       <c r="J22">
-        <v>1.017616492806776</v>
+        <v>1.051961688546286</v>
       </c>
       <c r="K22">
-        <v>1.023082461470992</v>
+        <v>1.050681537702125</v>
       </c>
       <c r="L22">
-        <v>0.9947243011726264</v>
+        <v>1.056918554261996</v>
       </c>
       <c r="M22">
-        <v>0.998784127700911</v>
+        <v>1.064394623718153</v>
       </c>
       <c r="N22">
-        <v>1.019061624948804</v>
+        <v>1.053455594805714</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.989083994475626</v>
+        <v>1.045667736201818</v>
       </c>
       <c r="D23">
-        <v>1.009810770528267</v>
+        <v>1.047377018695141</v>
       </c>
       <c r="E23">
-        <v>0.9816572426211464</v>
+        <v>1.053808936166202</v>
       </c>
       <c r="F23">
-        <v>0.986031702566898</v>
+        <v>1.061353140137373</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038599599853806</v>
+        <v>1.04257076823532</v>
       </c>
       <c r="J23">
-        <v>1.019639404607181</v>
+        <v>1.052298044252645</v>
       </c>
       <c r="K23">
-        <v>1.024881978795625</v>
+        <v>1.050975261340735</v>
       </c>
       <c r="L23">
-        <v>0.997279577640138</v>
+        <v>1.057383551683173</v>
       </c>
       <c r="M23">
-        <v>1.001565686322922</v>
+        <v>1.064900445566142</v>
       </c>
       <c r="N23">
-        <v>1.021087409515997</v>
+        <v>1.053792428175757</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9998155732780221</v>
+        <v>1.047505692476997</v>
       </c>
       <c r="D24">
-        <v>1.01799552456173</v>
+        <v>1.048802195945991</v>
       </c>
       <c r="E24">
-        <v>0.9928442557531638</v>
+        <v>1.055910478922198</v>
       </c>
       <c r="F24">
-        <v>0.9980853422441981</v>
+        <v>1.063613873385151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042504528687303</v>
+        <v>1.043125358631993</v>
       </c>
       <c r="J24">
-        <v>1.027320724405408</v>
+        <v>1.053618854202181</v>
       </c>
       <c r="K24">
-        <v>1.03171382052869</v>
+        <v>1.052128181699739</v>
       </c>
       <c r="L24">
-        <v>1.00699821051544</v>
+        <v>1.059212499040981</v>
       </c>
       <c r="M24">
-        <v>1.012146165055351</v>
+        <v>1.06689031826041</v>
       </c>
       <c r="N24">
-        <v>1.028779637669398</v>
+        <v>1.05511511382692</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011565245934563</v>
+        <v>1.049633881984684</v>
       </c>
       <c r="D25">
-        <v>1.026978088700535</v>
+        <v>1.05045185598863</v>
       </c>
       <c r="E25">
-        <v>1.005129463978405</v>
+        <v>1.058348229238945</v>
       </c>
       <c r="F25">
-        <v>1.011318599849353</v>
+        <v>1.066236689118706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046734974836822</v>
+        <v>1.043761192130012</v>
       </c>
       <c r="J25">
-        <v>1.035709565052736</v>
+        <v>1.055144663098772</v>
       </c>
       <c r="K25">
-        <v>1.039171557542552</v>
+        <v>1.053459039566609</v>
       </c>
       <c r="L25">
-        <v>1.017648670094122</v>
+        <v>1.061331542086279</v>
       </c>
       <c r="M25">
-        <v>1.023743713803602</v>
+        <v>1.069196539533424</v>
       </c>
       <c r="N25">
-        <v>1.037180391432659</v>
+        <v>1.056643089547157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051327715307378</v>
+        <v>1.020443242199764</v>
       </c>
       <c r="D2">
-        <v>1.051764338027758</v>
+        <v>1.033778288655659</v>
       </c>
       <c r="E2">
-        <v>1.060291986558754</v>
+        <v>1.014443624948787</v>
       </c>
       <c r="F2">
-        <v>1.068328339238921</v>
+        <v>1.021349321058765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044262139707192</v>
+        <v>1.049893574476895</v>
       </c>
       <c r="J2">
-        <v>1.056356170754503</v>
+        <v>1.042029230861557</v>
       </c>
       <c r="K2">
-        <v>1.054514935958826</v>
+        <v>1.044786271659655</v>
       </c>
       <c r="L2">
-        <v>1.063019163946364</v>
+        <v>1.025705338718139</v>
       </c>
       <c r="M2">
-        <v>1.071033815629506</v>
+        <v>1.032519027477439</v>
       </c>
       <c r="N2">
-        <v>1.057856317682721</v>
+        <v>1.04350903189185</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05255557359645</v>
+        <v>1.026634738355753</v>
       </c>
       <c r="D3">
-        <v>1.05271545701331</v>
+        <v>1.038526510336019</v>
       </c>
       <c r="E3">
-        <v>1.061703087550109</v>
+        <v>1.020958406144425</v>
       </c>
       <c r="F3">
-        <v>1.069846996974822</v>
+        <v>1.028364316612764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044622305286532</v>
+        <v>1.052073537438296</v>
       </c>
       <c r="J3">
-        <v>1.057232711179185</v>
+        <v>1.046424739867777</v>
       </c>
       <c r="K3">
-        <v>1.05527841056208</v>
+        <v>1.048689072134064</v>
       </c>
       <c r="L3">
-        <v>1.064243155258974</v>
+        <v>1.031329963380938</v>
       </c>
       <c r="M3">
-        <v>1.072366684853348</v>
+        <v>1.0386466914413</v>
       </c>
       <c r="N3">
-        <v>1.058734102895347</v>
+        <v>1.047910783024984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053349172494521</v>
+        <v>1.030532359127616</v>
       </c>
       <c r="D4">
-        <v>1.053330048667331</v>
+        <v>1.041517725096699</v>
       </c>
       <c r="E4">
-        <v>1.062616086598697</v>
+        <v>1.025068645247552</v>
       </c>
       <c r="F4">
-        <v>1.070829675353788</v>
+        <v>1.032789776886006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044853713886055</v>
+        <v>1.05343499180428</v>
       </c>
       <c r="J4">
-        <v>1.05779846427092</v>
+        <v>1.049186026894199</v>
       </c>
       <c r="K4">
-        <v>1.055770963234255</v>
+        <v>1.05113961671306</v>
       </c>
       <c r="L4">
-        <v>1.065034554386292</v>
+        <v>1.034873643042883</v>
       </c>
       <c r="M4">
-        <v>1.073228637057632</v>
+        <v>1.042507931689759</v>
       </c>
       <c r="N4">
-        <v>1.059300659421365</v>
+        <v>1.050675991395708</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053682587491913</v>
+        <v>1.032146147694464</v>
       </c>
       <c r="D5">
-        <v>1.053588222308022</v>
+        <v>1.042756665588067</v>
       </c>
       <c r="E5">
-        <v>1.062999897271354</v>
+        <v>1.026772691117313</v>
       </c>
       <c r="F5">
-        <v>1.071242799432319</v>
+        <v>1.03462443207662</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044950605831975</v>
+        <v>1.053996045686623</v>
       </c>
       <c r="J5">
-        <v>1.058035967458245</v>
+        <v>1.050327906252533</v>
       </c>
       <c r="K5">
-        <v>1.055977683142229</v>
+        <v>1.052152685420155</v>
       </c>
       <c r="L5">
-        <v>1.065367117729811</v>
+        <v>1.03634160698927</v>
       </c>
       <c r="M5">
-        <v>1.07359088554677</v>
+        <v>1.044107598278886</v>
       </c>
       <c r="N5">
-        <v>1.059538499890457</v>
+        <v>1.051819492353706</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053738556884417</v>
+        <v>1.032415691963416</v>
       </c>
       <c r="D6">
-        <v>1.053631559082598</v>
+        <v>1.042963624676691</v>
       </c>
       <c r="E6">
-        <v>1.063064340073225</v>
+        <v>1.02705744255549</v>
       </c>
       <c r="F6">
-        <v>1.071312165279998</v>
+        <v>1.03493100455157</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044966851444954</v>
+        <v>1.054089599126479</v>
       </c>
       <c r="J6">
-        <v>1.05807582545054</v>
+        <v>1.050518545105292</v>
       </c>
       <c r="K6">
-        <v>1.056012371898219</v>
+        <v>1.05232180047349</v>
       </c>
       <c r="L6">
-        <v>1.06542294843549</v>
+        <v>1.036586837972798</v>
       </c>
       <c r="M6">
-        <v>1.073651701971108</v>
+        <v>1.044374839969294</v>
       </c>
       <c r="N6">
-        <v>1.059578414485674</v>
+        <v>1.052010401935503</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053353628438743</v>
+        <v>1.030554018396883</v>
       </c>
       <c r="D7">
-        <v>1.053333499182469</v>
+        <v>1.041534351722094</v>
       </c>
       <c r="E7">
-        <v>1.062621215145642</v>
+        <v>1.025091507046776</v>
       </c>
       <c r="F7">
-        <v>1.070835195508011</v>
+        <v>1.032814391253328</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044855010100913</v>
+        <v>1.053442532457014</v>
       </c>
       <c r="J7">
-        <v>1.057801639130995</v>
+        <v>1.049201358145396</v>
       </c>
       <c r="K7">
-        <v>1.055773726805767</v>
+        <v>1.051153219753083</v>
       </c>
       <c r="L7">
-        <v>1.065038998662415</v>
+        <v>1.034893342254245</v>
       </c>
       <c r="M7">
-        <v>1.073233477891007</v>
+        <v>1.042529397662409</v>
       </c>
       <c r="N7">
-        <v>1.059303838790105</v>
+        <v>1.05069134441904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051742865652259</v>
+        <v>1.022558974390766</v>
       </c>
       <c r="D8">
-        <v>1.052085949400182</v>
+        <v>1.035400332077814</v>
       </c>
       <c r="E8">
-        <v>1.060768893512195</v>
+        <v>1.016667934592332</v>
       </c>
       <c r="F8">
-        <v>1.068841578546472</v>
+        <v>1.023744501485926</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044384200078075</v>
+        <v>1.050640762871942</v>
       </c>
       <c r="J8">
-        <v>1.056652698562348</v>
+        <v>1.043532430027087</v>
       </c>
       <c r="K8">
-        <v>1.054773260521028</v>
+        <v>1.046121219008071</v>
       </c>
       <c r="L8">
-        <v>1.063432945248095</v>
+        <v>1.027626763934427</v>
       </c>
       <c r="M8">
-        <v>1.07148437181432</v>
+        <v>1.034612164268158</v>
       </c>
       <c r="N8">
-        <v>1.058153266594065</v>
+        <v>1.045014365772568</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048897397758108</v>
+        <v>1.007576911409563</v>
       </c>
       <c r="D9">
-        <v>1.049881045939212</v>
+        <v>1.023926698552422</v>
       </c>
       <c r="E9">
-        <v>1.057504071428364</v>
+        <v>1.000954462389242</v>
       </c>
       <c r="F9">
-        <v>1.06532839487847</v>
+        <v>1.006821809385275</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043541946365811</v>
+        <v>1.045304881150554</v>
       </c>
       <c r="J9">
-        <v>1.054617086401239</v>
+        <v>1.032864917579898</v>
       </c>
       <c r="K9">
-        <v>1.052998997073005</v>
+        <v>1.036643153034212</v>
       </c>
       <c r="L9">
-        <v>1.060598059765218</v>
+        <v>1.014032073064391</v>
       </c>
       <c r="M9">
-        <v>1.068398176985611</v>
+        <v>1.019805168662635</v>
       </c>
       <c r="N9">
-        <v>1.0561147636302</v>
+        <v>1.034331704234123</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046995438207687</v>
+        <v>0.9968930687071675</v>
       </c>
       <c r="D10">
-        <v>1.048406580735505</v>
+        <v>1.015764650108881</v>
       </c>
       <c r="E10">
-        <v>1.055326708047283</v>
+        <v>0.9897948505769644</v>
       </c>
       <c r="F10">
-        <v>1.062985850373711</v>
+        <v>0.9948000414074368</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042971889261711</v>
+        <v>1.04144463944756</v>
       </c>
       <c r="J10">
-        <v>1.053252449985237</v>
+        <v>1.025230500352683</v>
       </c>
       <c r="K10">
-        <v>1.051808429923765</v>
+        <v>1.029854985460061</v>
       </c>
       <c r="L10">
-        <v>1.058704646552231</v>
+        <v>1.004350839619043</v>
       </c>
       <c r="M10">
-        <v>1.066337723659775</v>
+        <v>1.009263821736736</v>
       </c>
       <c r="N10">
-        <v>1.054748189273961</v>
+        <v>1.026686445258766</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046170640169184</v>
+        <v>0.9920775336292988</v>
       </c>
       <c r="D11">
-        <v>1.047767019569463</v>
+        <v>1.01209188050113</v>
       </c>
       <c r="E11">
-        <v>1.054383629321915</v>
+        <v>0.984775004751503</v>
       </c>
       <c r="F11">
-        <v>1.061971334583277</v>
+        <v>0.9893913330700306</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042723004215075</v>
+        <v>1.039692342857057</v>
       </c>
       <c r="J11">
-        <v>1.052659721034021</v>
+        <v>1.021783651319198</v>
       </c>
       <c r="K11">
-        <v>1.051291042045424</v>
+        <v>1.026789308440005</v>
       </c>
       <c r="L11">
-        <v>1.057883893385413</v>
+        <v>0.9999898694130395</v>
       </c>
       <c r="M11">
-        <v>1.065444754976793</v>
+        <v>1.004516125288034</v>
       </c>
       <c r="N11">
-        <v>1.054154618579648</v>
+        <v>1.023234701304294</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045864083448707</v>
+        <v>0.9902580347379031</v>
       </c>
       <c r="D12">
-        <v>1.04752928917426</v>
+        <v>1.010705212078615</v>
       </c>
       <c r="E12">
-        <v>1.054033282438325</v>
+        <v>0.9828797595324184</v>
       </c>
       <c r="F12">
-        <v>1.061594465490636</v>
+        <v>0.9873490921872607</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042630248397379</v>
+        <v>1.039028465613598</v>
       </c>
       <c r="J12">
-        <v>1.052439276894842</v>
+        <v>1.020480492174327</v>
       </c>
       <c r="K12">
-        <v>1.051098578624993</v>
+        <v>1.025630151372005</v>
       </c>
       <c r="L12">
-        <v>1.057578890040083</v>
+        <v>0.9983424744809439</v>
       </c>
       <c r="M12">
-        <v>1.0651129443648</v>
+        <v>1.002722744486651</v>
       </c>
       <c r="N12">
-        <v>1.053933861384505</v>
+        <v>1.021929691523963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04592984957102</v>
+        <v>0.9906497575257827</v>
       </c>
       <c r="D13">
-        <v>1.047580290833501</v>
+        <v>1.011003700570083</v>
       </c>
       <c r="E13">
-        <v>1.054108435179438</v>
+        <v>0.9832877256420107</v>
       </c>
       <c r="F13">
-        <v>1.061675306768129</v>
+        <v>0.9877887087930908</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042650158832222</v>
+        <v>1.039171472488708</v>
       </c>
       <c r="J13">
-        <v>1.05248657554794</v>
+        <v>1.02076108654894</v>
       </c>
       <c r="K13">
-        <v>1.051139875505816</v>
+        <v>1.025879743879158</v>
       </c>
       <c r="L13">
-        <v>1.057644320666159</v>
+        <v>0.9986971297039692</v>
       </c>
       <c r="M13">
-        <v>1.06518412448603</v>
+        <v>1.003108823314054</v>
       </c>
       <c r="N13">
-        <v>1.053981227207115</v>
+        <v>1.022210684374772</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046145303995214</v>
+        <v>0.9919277759942515</v>
       </c>
       <c r="D14">
-        <v>1.047747372160536</v>
+        <v>1.011977725813992</v>
       </c>
       <c r="E14">
-        <v>1.054354670498316</v>
+        <v>0.9846189836761805</v>
       </c>
       <c r="F14">
-        <v>1.061940183169133</v>
+        <v>0.98922321476897</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042715343298163</v>
+        <v>1.039637736985204</v>
       </c>
       <c r="J14">
-        <v>1.052641504745179</v>
+        <v>1.021676408014748</v>
       </c>
       <c r="K14">
-        <v>1.051275138736508</v>
+        <v>1.026693917810255</v>
       </c>
       <c r="L14">
-        <v>1.057858684579536</v>
+        <v>0.9998542703182289</v>
       </c>
       <c r="M14">
-        <v>1.065417329933261</v>
+        <v>1.004368507846708</v>
       </c>
       <c r="N14">
-        <v>1.054136376421585</v>
+        <v>1.023127305702051</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046278027274576</v>
+        <v>0.9927110500923804</v>
       </c>
       <c r="D15">
-        <v>1.047850294026191</v>
+        <v>1.012574830037808</v>
       </c>
       <c r="E15">
-        <v>1.054506378017311</v>
+        <v>0.9854350758446914</v>
       </c>
       <c r="F15">
-        <v>1.062103377743394</v>
+        <v>0.9901025758462195</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042755464635303</v>
+        <v>1.039923268479217</v>
       </c>
       <c r="J15">
-        <v>1.052736924782974</v>
+        <v>1.022237288045457</v>
       </c>
       <c r="K15">
-        <v>1.051358441367316</v>
+        <v>1.027192804369834</v>
       </c>
       <c r="L15">
-        <v>1.057990742684243</v>
+        <v>1.00056350530456</v>
       </c>
       <c r="M15">
-        <v>1.065560999143975</v>
+        <v>1.005140607546948</v>
       </c>
       <c r="N15">
-        <v>1.054231931966779</v>
+        <v>1.023688982246737</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047050150920366</v>
+        <v>0.9972084760134751</v>
       </c>
       <c r="D16">
-        <v>1.048449002751823</v>
+        <v>1.016005346149957</v>
       </c>
       <c r="E16">
-        <v>1.055389291003779</v>
+        <v>0.9901238439915309</v>
       </c>
       <c r="F16">
-        <v>1.063053176177857</v>
+        <v>0.9951544967118586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04298836370825</v>
+        <v>1.041559160336614</v>
       </c>
       <c r="J16">
-        <v>1.053291748598568</v>
+        <v>1.025456147104431</v>
       </c>
       <c r="K16">
-        <v>1.051842727765864</v>
+        <v>1.03005566246701</v>
       </c>
       <c r="L16">
-        <v>1.05875909800562</v>
+        <v>1.004636525100781</v>
       </c>
       <c r="M16">
-        <v>1.066396970191998</v>
+        <v>1.009574856018895</v>
       </c>
       <c r="N16">
-        <v>1.054787543695831</v>
+        <v>1.026912412454783</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047534149573498</v>
+        <v>0.9999773197898122</v>
       </c>
       <c r="D17">
-        <v>1.048824258558751</v>
+        <v>1.018119033561693</v>
       </c>
       <c r="E17">
-        <v>1.055943043906606</v>
+        <v>0.9930130932870849</v>
       </c>
       <c r="F17">
-        <v>1.063648907657706</v>
+        <v>0.9982672337101087</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043133906265659</v>
+        <v>1.042563105841481</v>
       </c>
       <c r="J17">
-        <v>1.053639282282824</v>
+        <v>1.027436369592685</v>
       </c>
       <c r="K17">
-        <v>1.052146006964238</v>
+        <v>1.031816657729619</v>
       </c>
       <c r="L17">
-        <v>1.059240824496295</v>
+        <v>1.00714474746507</v>
       </c>
       <c r="M17">
-        <v>1.066921140518898</v>
+        <v>1.012305712961002</v>
       </c>
       <c r="N17">
-        <v>1.055135570917781</v>
+        <v>1.028895447086106</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047816338729568</v>
+        <v>1.001574240628106</v>
       </c>
       <c r="D18">
-        <v>1.049043032182437</v>
+        <v>1.019338662312026</v>
       </c>
       <c r="E18">
-        <v>1.056266013312471</v>
+        <v>0.9946804170800602</v>
       </c>
       <c r="F18">
-        <v>1.063996370925068</v>
+        <v>1.000063430555834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043218601406364</v>
+        <v>1.043140958358988</v>
       </c>
       <c r="J18">
-        <v>1.053841816202248</v>
+        <v>1.028577906686124</v>
       </c>
       <c r="K18">
-        <v>1.052322724862228</v>
+        <v>1.03283173061786</v>
       </c>
       <c r="L18">
-        <v>1.059521721606766</v>
+        <v>1.008591609598992</v>
       </c>
       <c r="M18">
-        <v>1.067226805418346</v>
+        <v>1.013881069195582</v>
       </c>
       <c r="N18">
-        <v>1.055338392458602</v>
+        <v>1.030038605293153</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047912537868162</v>
+        <v>1.002115746504499</v>
       </c>
       <c r="D19">
-        <v>1.049117610302643</v>
+        <v>1.019752323314328</v>
       </c>
       <c r="E19">
-        <v>1.056376133408695</v>
+        <v>0.9952459609159193</v>
       </c>
       <c r="F19">
-        <v>1.064114844244646</v>
+        <v>1.000672671388967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043247446823887</v>
+        <v>1.043336704236672</v>
       </c>
       <c r="J19">
-        <v>1.05391084516837</v>
+        <v>1.02896489977204</v>
       </c>
       <c r="K19">
-        <v>1.05238295068622</v>
+        <v>1.033175835584872</v>
       </c>
       <c r="L19">
-        <v>1.059617485858082</v>
+        <v>1.009082275878939</v>
       </c>
       <c r="M19">
-        <v>1.067331016724282</v>
+        <v>1.014415322596889</v>
       </c>
       <c r="N19">
-        <v>1.055407519453772</v>
+        <v>1.03042614795364</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047482233445923</v>
+        <v>0.9996821372263055</v>
       </c>
       <c r="D20">
-        <v>1.048784008221276</v>
+        <v>1.017893636513117</v>
       </c>
       <c r="E20">
-        <v>1.055883634118283</v>
+        <v>0.9927049752661323</v>
       </c>
       <c r="F20">
-        <v>1.063584993092792</v>
+        <v>0.9979352925276088</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043118311351974</v>
+        <v>1.042456197644823</v>
       </c>
       <c r="J20">
-        <v>1.053602013496148</v>
+        <v>1.027225317451556</v>
       </c>
       <c r="K20">
-        <v>1.052113486584878</v>
+        <v>1.031628979633759</v>
       </c>
       <c r="L20">
-        <v>1.059189148714907</v>
+        <v>1.006877323343619</v>
       </c>
       <c r="M20">
-        <v>1.066864909778468</v>
+        <v>1.012014544745965</v>
       </c>
       <c r="N20">
-        <v>1.055098249205152</v>
+        <v>1.028684095226728</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046081863315926</v>
+        <v>0.9915523016647635</v>
       </c>
       <c r="D21">
-        <v>1.047698175556289</v>
+        <v>1.011691532998375</v>
       </c>
       <c r="E21">
-        <v>1.054282161633127</v>
+        <v>0.9842278286366796</v>
       </c>
       <c r="F21">
-        <v>1.06186218462291</v>
+        <v>0.9888017282061345</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042696156633778</v>
+        <v>1.039500799853164</v>
       </c>
       <c r="J21">
-        <v>1.052595889661757</v>
+        <v>1.021407513479489</v>
       </c>
       <c r="K21">
-        <v>1.051235314904972</v>
+        <v>1.026454740208717</v>
       </c>
       <c r="L21">
-        <v>1.057795563628937</v>
+        <v>0.999514299948456</v>
       </c>
       <c r="M21">
-        <v>1.065348660159681</v>
+        <v>1.003998407052159</v>
       </c>
       <c r="N21">
-        <v>1.054090696559512</v>
+        <v>1.02285802930571</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045200293649901</v>
+        <v>0.9862612187232935</v>
       </c>
       <c r="D22">
-        <v>1.047014491030666</v>
+        <v>1.007661263073164</v>
       </c>
       <c r="E22">
-        <v>1.053274986598864</v>
+        <v>0.97871914056214</v>
       </c>
       <c r="F22">
-        <v>1.060778794084027</v>
+        <v>0.9828654139329567</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042428943735408</v>
+        <v>1.037566933217559</v>
       </c>
       <c r="J22">
-        <v>1.051961688546286</v>
+        <v>1.017616492806776</v>
       </c>
       <c r="K22">
-        <v>1.050681537702125</v>
+        <v>1.023082461470992</v>
       </c>
       <c r="L22">
-        <v>1.056918554261996</v>
+        <v>0.9947243011726268</v>
       </c>
       <c r="M22">
-        <v>1.064394623718153</v>
+        <v>0.9987841277009112</v>
       </c>
       <c r="N22">
-        <v>1.053455594805714</v>
+        <v>1.019061624948804</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045667736201818</v>
+        <v>0.9890839944756258</v>
       </c>
       <c r="D23">
-        <v>1.047377018695141</v>
+        <v>1.009810770528267</v>
       </c>
       <c r="E23">
-        <v>1.053808936166202</v>
+        <v>0.9816572426211458</v>
       </c>
       <c r="F23">
-        <v>1.061353140137373</v>
+        <v>0.9860317025668971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04257076823532</v>
+        <v>1.038599599853806</v>
       </c>
       <c r="J23">
-        <v>1.052298044252645</v>
+        <v>1.01963940460718</v>
       </c>
       <c r="K23">
-        <v>1.050975261340735</v>
+        <v>1.024881978795624</v>
       </c>
       <c r="L23">
-        <v>1.057383551683173</v>
+        <v>0.9972795776401373</v>
       </c>
       <c r="M23">
-        <v>1.064900445566142</v>
+        <v>1.001565686322921</v>
       </c>
       <c r="N23">
-        <v>1.053792428175757</v>
+        <v>1.021087409515997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047505692476997</v>
+        <v>0.999815573278023</v>
       </c>
       <c r="D24">
-        <v>1.048802195945991</v>
+        <v>1.01799552456173</v>
       </c>
       <c r="E24">
-        <v>1.055910478922198</v>
+        <v>0.992844255753165</v>
       </c>
       <c r="F24">
-        <v>1.063613873385151</v>
+        <v>0.9980853422441994</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043125358631993</v>
+        <v>1.042504528687304</v>
       </c>
       <c r="J24">
-        <v>1.053618854202181</v>
+        <v>1.027320724405409</v>
       </c>
       <c r="K24">
-        <v>1.052128181699739</v>
+        <v>1.031713820528691</v>
       </c>
       <c r="L24">
-        <v>1.059212499040981</v>
+        <v>1.006998210515441</v>
       </c>
       <c r="M24">
-        <v>1.06689031826041</v>
+        <v>1.012146165055352</v>
       </c>
       <c r="N24">
-        <v>1.05511511382692</v>
+        <v>1.028779637669399</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049633881984684</v>
+        <v>1.011565245934561</v>
       </c>
       <c r="D25">
-        <v>1.05045185598863</v>
+        <v>1.026978088700533</v>
       </c>
       <c r="E25">
-        <v>1.058348229238945</v>
+        <v>1.005129463978404</v>
       </c>
       <c r="F25">
-        <v>1.066236689118706</v>
+        <v>1.011318599849351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043761192130012</v>
+        <v>1.046734974836821</v>
       </c>
       <c r="J25">
-        <v>1.055144663098772</v>
+        <v>1.035709565052734</v>
       </c>
       <c r="K25">
-        <v>1.053459039566609</v>
+        <v>1.03917155754255</v>
       </c>
       <c r="L25">
-        <v>1.061331542086279</v>
+        <v>1.017648670094121</v>
       </c>
       <c r="M25">
-        <v>1.069196539533424</v>
+        <v>1.0237437138036</v>
       </c>
       <c r="N25">
-        <v>1.056643089547157</v>
+        <v>1.037180391432657</v>
       </c>
     </row>
   </sheetData>
